--- a/тест.xlsx
+++ b/тест.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\4 СЕМЕСТР\ТИ\лаб2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\4 СЕМЕСТР\ТИ\лаб2\лаб2 на шарпах\лаб2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -352,11 +352,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,26 +436,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,34 +795,34 @@
     <row r="1" spans="2:43" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
-      <c r="D1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
+      <c r="D1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
       <c r="AD1" s="6" t="s">
         <v>1</v>
       </c>
@@ -922,7 +937,7 @@
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="2:43" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="17">
@@ -1013,7 +1028,7 @@
       <c r="AE3" s="22"/>
     </row>
     <row r="4" spans="2:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="17">
         <v>2</v>
       </c>
@@ -1128,7 +1143,7 @@
       <c r="AE4" s="22"/>
     </row>
     <row r="5" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="17">
         <v>3</v>
       </c>
@@ -1243,7 +1258,7 @@
       <c r="AE5" s="22"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="17">
         <v>4</v>
       </c>
@@ -1358,7 +1373,7 @@
       <c r="AE6" s="22"/>
     </row>
     <row r="7" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="17">
         <v>5</v>
       </c>
@@ -1473,7 +1488,7 @@
       <c r="AE7" s="22"/>
     </row>
     <row r="8" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="17">
         <v>6</v>
       </c>
@@ -1588,7 +1603,7 @@
       <c r="AE8" s="22"/>
     </row>
     <row r="9" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="17">
         <v>7</v>
       </c>
@@ -1703,7 +1718,7 @@
       <c r="AE9" s="22"/>
     </row>
     <row r="10" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="17">
         <v>8</v>
       </c>
@@ -1818,7 +1833,7 @@
       <c r="AE10" s="22"/>
     </row>
     <row r="11" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17">
         <v>9</v>
       </c>
@@ -1933,7 +1948,7 @@
       <c r="AE11" s="22"/>
     </row>
     <row r="12" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="17">
         <v>10</v>
       </c>
@@ -2048,7 +2063,7 @@
       <c r="AE12" s="22"/>
     </row>
     <row r="13" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="17">
         <v>11</v>
       </c>
@@ -2163,7 +2178,7 @@
       <c r="AE13" s="22"/>
     </row>
     <row r="14" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="17">
         <v>12</v>
       </c>
@@ -2278,7 +2293,7 @@
       <c r="AE14" s="22"/>
     </row>
     <row r="15" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="17">
         <v>13</v>
       </c>
@@ -2393,7 +2408,7 @@
       <c r="AE15" s="22"/>
     </row>
     <row r="16" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="17">
         <v>14</v>
       </c>
@@ -2508,7 +2523,7 @@
       <c r="AE16" s="22"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="17">
         <v>15</v>
       </c>
@@ -2597,7 +2612,7 @@
       <c r="AE17" s="22"/>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="17">
         <v>16</v>
       </c>
@@ -2686,7 +2701,7 @@
       <c r="AE18" s="22"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="17">
         <v>17</v>
       </c>
@@ -2775,7 +2790,7 @@
       <c r="AE19" s="22"/>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="17">
         <v>18</v>
       </c>
@@ -2864,7 +2879,7 @@
       <c r="AE20" s="22"/>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="17">
         <v>19</v>
       </c>
@@ -2953,7 +2968,7 @@
       <c r="AE21" s="22"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="17">
         <v>20</v>
       </c>
@@ -3042,7 +3057,7 @@
       <c r="AE22" s="22"/>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="17">
         <v>21</v>
       </c>
@@ -3131,7 +3146,7 @@
       <c r="AE23" s="22"/>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="17">
         <v>22</v>
       </c>
@@ -3220,7 +3235,7 @@
       <c r="AE24" s="22"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="17">
         <v>23</v>
       </c>
@@ -3309,7 +3324,7 @@
       <c r="AE25" s="22"/>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="17">
         <v>24</v>
       </c>
@@ -3398,7 +3413,7 @@
       <c r="AE26" s="22"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="17">
         <v>25</v>
       </c>
@@ -3487,7 +3502,7 @@
       <c r="AE27" s="22"/>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="17">
         <v>26</v>
       </c>
@@ -3576,7 +3591,7 @@
       <c r="AE28" s="22"/>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="17">
         <v>27</v>
       </c>
@@ -3665,7 +3680,7 @@
       <c r="AE29" s="22"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="17">
         <v>28</v>
       </c>
@@ -3754,7 +3769,7 @@
       <c r="AE30" s="22"/>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B31" s="30"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="17">
         <v>29</v>
       </c>
@@ -3843,7 +3858,7 @@
       <c r="AE31" s="22"/>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="17">
         <v>30</v>
       </c>
@@ -3932,7 +3947,7 @@
       <c r="AE32" s="22"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B33" s="30"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="17">
         <v>31</v>
       </c>
@@ -4021,881 +4036,2166 @@
       <c r="AE33" s="22"/>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B34" s="30"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="17">
+        <v>32</v>
+      </c>
+      <c r="D34" s="18">
+        <v>1</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+      <c r="H34" s="23">
+        <v>0</v>
+      </c>
+      <c r="I34" s="23">
+        <v>0</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0</v>
+      </c>
+      <c r="K34" s="23">
+        <v>0</v>
+      </c>
+      <c r="L34" s="23">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23">
+        <v>1</v>
+      </c>
+      <c r="N34" s="23">
+        <v>0</v>
+      </c>
+      <c r="O34" s="23">
+        <v>1</v>
+      </c>
+      <c r="P34" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>1</v>
+      </c>
+      <c r="R34" s="23">
+        <v>0</v>
+      </c>
+      <c r="S34" s="23">
+        <v>1</v>
+      </c>
+      <c r="T34" s="23">
+        <v>1</v>
+      </c>
+      <c r="U34" s="23">
+        <v>1</v>
+      </c>
+      <c r="V34" s="20">
+        <v>1</v>
+      </c>
+      <c r="W34" s="20">
+        <v>1</v>
+      </c>
+      <c r="X34" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="23">
+        <v>1</v>
+      </c>
       <c r="AC34" s="20">
         <v>1</v>
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="22"/>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="1" t="e">
+      <c r="B35" s="32"/>
+      <c r="C35" s="17">
+        <v>33</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+      <c r="J35" s="19">
+        <v>0</v>
+      </c>
+      <c r="K35" s="19">
+        <v>0</v>
+      </c>
+      <c r="L35" s="19">
+        <v>1</v>
+      </c>
+      <c r="M35" s="19">
+        <v>0</v>
+      </c>
+      <c r="N35" s="19">
+        <v>1</v>
+      </c>
+      <c r="O35" s="19">
+        <v>0</v>
+      </c>
+      <c r="P35" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>0</v>
+      </c>
+      <c r="R35" s="19">
+        <v>1</v>
+      </c>
+      <c r="S35" s="19">
+        <v>1</v>
+      </c>
+      <c r="T35" s="19">
+        <v>1</v>
+      </c>
+      <c r="U35" s="19">
+        <v>1</v>
+      </c>
+      <c r="V35" s="20">
+        <v>1</v>
+      </c>
+      <c r="W35" s="20">
+        <v>1</v>
+      </c>
+      <c r="X35" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="22"/>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="1" t="e">
+      <c r="B36" s="32"/>
+      <c r="C36" s="17">
+        <v>34</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
+      <c r="H36" s="23">
+        <v>0</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0</v>
+      </c>
+      <c r="J36" s="23">
+        <v>0</v>
+      </c>
+      <c r="K36" s="23">
+        <v>1</v>
+      </c>
+      <c r="L36" s="23">
+        <v>0</v>
+      </c>
+      <c r="M36" s="23">
+        <v>1</v>
+      </c>
+      <c r="N36" s="23">
+        <v>0</v>
+      </c>
+      <c r="O36" s="23">
+        <v>1</v>
+      </c>
+      <c r="P36" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>1</v>
+      </c>
+      <c r="R36" s="23">
+        <v>1</v>
+      </c>
+      <c r="S36" s="23">
+        <v>1</v>
+      </c>
+      <c r="T36" s="23">
+        <v>1</v>
+      </c>
+      <c r="U36" s="23">
+        <v>1</v>
+      </c>
+      <c r="V36" s="20">
+        <v>1</v>
+      </c>
+      <c r="W36" s="20">
+        <v>0</v>
+      </c>
+      <c r="X36" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="22"/>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="1" t="e">
+      <c r="B37" s="32"/>
+      <c r="C37" s="17">
+        <v>35</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19">
+        <v>0</v>
+      </c>
+      <c r="I37" s="19">
+        <v>0</v>
+      </c>
+      <c r="J37" s="19">
+        <v>1</v>
+      </c>
+      <c r="K37" s="19">
+        <v>0</v>
+      </c>
+      <c r="L37" s="19">
+        <v>1</v>
+      </c>
+      <c r="M37" s="19">
+        <v>0</v>
+      </c>
+      <c r="N37" s="19">
+        <v>1</v>
+      </c>
+      <c r="O37" s="19">
+        <v>0</v>
+      </c>
+      <c r="P37" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>1</v>
+      </c>
+      <c r="R37" s="19">
+        <v>1</v>
+      </c>
+      <c r="S37" s="19">
+        <v>1</v>
+      </c>
+      <c r="T37" s="19">
+        <v>1</v>
+      </c>
+      <c r="U37" s="19">
+        <v>1</v>
+      </c>
+      <c r="V37" s="20">
+        <v>0</v>
+      </c>
+      <c r="W37" s="20">
+        <v>0</v>
+      </c>
+      <c r="X37" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="22"/>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="1" t="e">
+      <c r="B38" s="32"/>
+      <c r="C38" s="17">
+        <v>36</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0</v>
+      </c>
+      <c r="F38" s="23">
+        <v>0</v>
+      </c>
+      <c r="G38" s="23">
+        <v>0</v>
+      </c>
+      <c r="H38" s="23">
+        <v>0</v>
+      </c>
+      <c r="I38" s="23">
+        <v>1</v>
+      </c>
+      <c r="J38" s="23">
+        <v>0</v>
+      </c>
+      <c r="K38" s="23">
+        <v>1</v>
+      </c>
+      <c r="L38" s="23">
+        <v>0</v>
+      </c>
+      <c r="M38" s="23">
+        <v>1</v>
+      </c>
+      <c r="N38" s="23">
+        <v>0</v>
+      </c>
+      <c r="O38" s="23">
+        <v>1</v>
+      </c>
+      <c r="P38" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>1</v>
+      </c>
+      <c r="R38" s="23">
+        <v>1</v>
+      </c>
+      <c r="S38" s="23">
+        <v>1</v>
+      </c>
+      <c r="T38" s="23">
+        <v>1</v>
+      </c>
+      <c r="U38" s="23">
+        <v>0</v>
+      </c>
+      <c r="V38" s="20">
+        <v>0</v>
+      </c>
+      <c r="W38" s="20">
+        <v>0</v>
+      </c>
+      <c r="X38" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="22"/>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="1" t="e">
+      <c r="B39" s="32"/>
+      <c r="C39" s="17">
+        <v>37</v>
+      </c>
+      <c r="D39" s="18">
+        <v>0</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="19">
+        <v>0</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0</v>
+      </c>
+      <c r="H39" s="19">
+        <v>1</v>
+      </c>
+      <c r="I39" s="19">
+        <v>0</v>
+      </c>
+      <c r="J39" s="19">
+        <v>1</v>
+      </c>
+      <c r="K39" s="19">
+        <v>0</v>
+      </c>
+      <c r="L39" s="19">
+        <v>1</v>
+      </c>
+      <c r="M39" s="19">
+        <v>0</v>
+      </c>
+      <c r="N39" s="19">
+        <v>1</v>
+      </c>
+      <c r="O39" s="19">
+        <v>1</v>
+      </c>
+      <c r="P39" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>1</v>
+      </c>
+      <c r="R39" s="19">
+        <v>1</v>
+      </c>
+      <c r="S39" s="19">
+        <v>1</v>
+      </c>
+      <c r="T39" s="19">
+        <v>0</v>
+      </c>
+      <c r="U39" s="19">
+        <v>0</v>
+      </c>
+      <c r="V39" s="20">
+        <v>0</v>
+      </c>
+      <c r="W39" s="20">
+        <v>1</v>
+      </c>
+      <c r="X39" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="22"/>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="1" t="e">
+      <c r="B40" s="32"/>
+      <c r="C40" s="17">
+        <v>38</v>
+      </c>
+      <c r="D40" s="18">
+        <v>0</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0</v>
+      </c>
+      <c r="G40" s="23">
+        <v>1</v>
+      </c>
+      <c r="H40" s="23">
+        <v>0</v>
+      </c>
+      <c r="I40" s="23">
+        <v>1</v>
+      </c>
+      <c r="J40" s="23">
+        <v>0</v>
+      </c>
+      <c r="K40" s="23">
+        <v>1</v>
+      </c>
+      <c r="L40" s="23">
+        <v>0</v>
+      </c>
+      <c r="M40" s="23">
+        <v>1</v>
+      </c>
+      <c r="N40" s="23">
+        <v>1</v>
+      </c>
+      <c r="O40" s="23">
+        <v>1</v>
+      </c>
+      <c r="P40" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>1</v>
+      </c>
+      <c r="R40" s="23">
+        <v>1</v>
+      </c>
+      <c r="S40" s="23">
+        <v>0</v>
+      </c>
+      <c r="T40" s="23">
+        <v>0</v>
+      </c>
+      <c r="U40" s="23">
+        <v>0</v>
+      </c>
+      <c r="V40" s="20">
+        <v>1</v>
+      </c>
+      <c r="W40" s="20">
+        <v>1</v>
+      </c>
+      <c r="X40" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="22"/>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="1" t="e">
+      <c r="B41" s="32"/>
+      <c r="C41" s="17">
+        <v>39</v>
+      </c>
+      <c r="D41" s="18">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="19">
+        <v>1</v>
+      </c>
+      <c r="G41" s="19">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <v>1</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="19">
+        <v>1</v>
+      </c>
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
+        <v>1</v>
+      </c>
+      <c r="M41" s="19">
+        <v>1</v>
+      </c>
+      <c r="N41" s="19">
+        <v>1</v>
+      </c>
+      <c r="O41" s="19">
+        <v>1</v>
+      </c>
+      <c r="P41" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>1</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <v>1</v>
+      </c>
+      <c r="V41" s="20">
+        <v>1</v>
+      </c>
+      <c r="W41" s="20">
+        <v>0</v>
+      </c>
+      <c r="X41" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE41" s="22"/>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="1" t="e">
+      <c r="B42" s="32"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E42" s="23">
+        <v>1</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0</v>
+      </c>
+      <c r="G42" s="23">
+        <v>1</v>
+      </c>
+      <c r="H42" s="23">
+        <v>0</v>
+      </c>
+      <c r="I42" s="23">
+        <v>1</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0</v>
+      </c>
+      <c r="K42" s="23">
+        <v>1</v>
+      </c>
+      <c r="L42" s="23">
+        <v>1</v>
+      </c>
+      <c r="M42" s="23">
+        <v>1</v>
+      </c>
+      <c r="N42" s="23">
+        <v>1</v>
+      </c>
+      <c r="O42" s="23">
+        <v>1</v>
+      </c>
+      <c r="P42" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="23">
+        <v>0</v>
+      </c>
+      <c r="R42" s="23">
+        <v>0</v>
+      </c>
+      <c r="S42" s="23">
+        <v>0</v>
+      </c>
+      <c r="T42" s="23">
+        <v>1</v>
+      </c>
+      <c r="U42" s="23">
+        <v>1</v>
+      </c>
+      <c r="V42" s="20">
+        <v>0</v>
+      </c>
+      <c r="W42" s="20">
+        <v>0</v>
+      </c>
+      <c r="X42" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE42" s="22"/>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="1" t="e">
+      <c r="B43" s="32"/>
+      <c r="C43" s="17">
+        <v>41</v>
+      </c>
+      <c r="D43" s="18">
+        <v>1</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19">
+        <v>1</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <v>1</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0</v>
+      </c>
+      <c r="J43" s="19">
+        <v>1</v>
+      </c>
+      <c r="K43" s="19">
+        <v>1</v>
+      </c>
+      <c r="L43" s="19">
+        <v>1</v>
+      </c>
+      <c r="M43" s="19">
+        <v>1</v>
+      </c>
+      <c r="N43" s="19">
+        <v>1</v>
+      </c>
+      <c r="O43" s="19">
+        <v>1</v>
+      </c>
+      <c r="P43" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>0</v>
+      </c>
+      <c r="R43" s="19">
+        <v>0</v>
+      </c>
+      <c r="S43" s="19">
+        <v>1</v>
+      </c>
+      <c r="T43" s="19">
+        <v>1</v>
+      </c>
+      <c r="U43" s="19">
+        <v>0</v>
+      </c>
+      <c r="V43" s="20">
+        <v>0</v>
+      </c>
+      <c r="W43" s="20">
+        <v>1</v>
+      </c>
+      <c r="X43" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE43" s="22"/>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="1" t="e">
+      <c r="B44" s="32"/>
+      <c r="C44" s="17">
+        <v>42</v>
+      </c>
+      <c r="D44" s="18">
+        <v>0</v>
+      </c>
+      <c r="E44" s="23">
+        <v>1</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
+        <v>1</v>
+      </c>
+      <c r="H44" s="23">
+        <v>0</v>
+      </c>
+      <c r="I44" s="23">
+        <v>1</v>
+      </c>
+      <c r="J44" s="23">
+        <v>1</v>
+      </c>
+      <c r="K44" s="23">
+        <v>1</v>
+      </c>
+      <c r="L44" s="23">
+        <v>1</v>
+      </c>
+      <c r="M44" s="23">
+        <v>1</v>
+      </c>
+      <c r="N44" s="23">
+        <v>1</v>
+      </c>
+      <c r="O44" s="23">
+        <v>0</v>
+      </c>
+      <c r="P44" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="23">
+        <v>0</v>
+      </c>
+      <c r="R44" s="23">
+        <v>1</v>
+      </c>
+      <c r="S44" s="23">
+        <v>1</v>
+      </c>
+      <c r="T44" s="23">
+        <v>0</v>
+      </c>
+      <c r="U44" s="23">
+        <v>0</v>
+      </c>
+      <c r="V44" s="20">
+        <v>1</v>
+      </c>
+      <c r="W44" s="20">
+        <v>1</v>
+      </c>
+      <c r="X44" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE44" s="22"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="1" t="e">
+      <c r="B45" s="32"/>
+      <c r="C45" s="17">
+        <v>43</v>
+      </c>
+      <c r="D45" s="18">
+        <v>1</v>
+      </c>
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="19">
+        <v>1</v>
+      </c>
+      <c r="G45" s="19">
+        <v>0</v>
+      </c>
+      <c r="H45" s="19">
+        <v>1</v>
+      </c>
+      <c r="I45" s="19">
+        <v>1</v>
+      </c>
+      <c r="J45" s="19">
+        <v>1</v>
+      </c>
+      <c r="K45" s="19">
+        <v>1</v>
+      </c>
+      <c r="L45" s="19">
+        <v>1</v>
+      </c>
+      <c r="M45" s="19">
+        <v>1</v>
+      </c>
+      <c r="N45" s="19">
+        <v>0</v>
+      </c>
+      <c r="O45" s="19">
+        <v>0</v>
+      </c>
+      <c r="P45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>1</v>
+      </c>
+      <c r="R45" s="19">
+        <v>1</v>
+      </c>
+      <c r="S45" s="19">
+        <v>0</v>
+      </c>
+      <c r="T45" s="19">
+        <v>0</v>
+      </c>
+      <c r="U45" s="19">
+        <v>1</v>
+      </c>
+      <c r="V45" s="20">
+        <v>1</v>
+      </c>
+      <c r="W45" s="20">
+        <v>1</v>
+      </c>
+      <c r="X45" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="22"/>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="1" t="e">
+      <c r="B46" s="32"/>
+      <c r="C46" s="17">
+        <v>44</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+      <c r="E46" s="23">
+        <v>1</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <v>1</v>
+      </c>
+      <c r="H46" s="23">
+        <v>1</v>
+      </c>
+      <c r="I46" s="23">
+        <v>1</v>
+      </c>
+      <c r="J46" s="23">
+        <v>1</v>
+      </c>
+      <c r="K46" s="23">
+        <v>1</v>
+      </c>
+      <c r="L46" s="23">
+        <v>1</v>
+      </c>
+      <c r="M46" s="23">
+        <v>0</v>
+      </c>
+      <c r="N46" s="23">
+        <v>0</v>
+      </c>
+      <c r="O46" s="23">
+        <v>0</v>
+      </c>
+      <c r="P46" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>1</v>
+      </c>
+      <c r="R46" s="23">
+        <v>0</v>
+      </c>
+      <c r="S46" s="23">
+        <v>0</v>
+      </c>
+      <c r="T46" s="23">
+        <v>1</v>
+      </c>
+      <c r="U46" s="23">
+        <v>1</v>
+      </c>
+      <c r="V46" s="20">
+        <v>1</v>
+      </c>
+      <c r="W46" s="20">
+        <v>0</v>
+      </c>
+      <c r="X46" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE46" s="22"/>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="1" t="e">
+      <c r="B47" s="32"/>
+      <c r="C47" s="17">
+        <v>45</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="F47" s="19">
+        <v>1</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1</v>
+      </c>
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
+      <c r="I47" s="19">
+        <v>1</v>
+      </c>
+      <c r="J47" s="19">
+        <v>1</v>
+      </c>
+      <c r="K47" s="19">
+        <v>1</v>
+      </c>
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19">
+        <v>0</v>
+      </c>
+      <c r="N47" s="19">
+        <v>0</v>
+      </c>
+      <c r="O47" s="19">
+        <v>1</v>
+      </c>
+      <c r="P47" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>0</v>
+      </c>
+      <c r="R47" s="19">
+        <v>0</v>
+      </c>
+      <c r="S47" s="19">
+        <v>1</v>
+      </c>
+      <c r="T47" s="19">
+        <v>1</v>
+      </c>
+      <c r="U47" s="19">
+        <v>1</v>
+      </c>
+      <c r="V47" s="20">
+        <v>0</v>
+      </c>
+      <c r="W47" s="20">
+        <v>0</v>
+      </c>
+      <c r="X47" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="22"/>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="1" t="e">
+      <c r="B48" s="32"/>
+      <c r="C48" s="17">
+        <v>46</v>
+      </c>
+      <c r="D48" s="18">
+        <v>0</v>
+      </c>
+      <c r="E48" s="23">
+        <v>1</v>
+      </c>
+      <c r="F48" s="23">
+        <v>1</v>
+      </c>
+      <c r="G48" s="23">
+        <v>1</v>
+      </c>
+      <c r="H48" s="23">
+        <v>1</v>
+      </c>
+      <c r="I48" s="23">
+        <v>1</v>
+      </c>
+      <c r="J48" s="23">
+        <v>1</v>
+      </c>
+      <c r="K48" s="23">
+        <v>0</v>
+      </c>
+      <c r="L48" s="23">
+        <v>0</v>
+      </c>
+      <c r="M48" s="23">
+        <v>0</v>
+      </c>
+      <c r="N48" s="23">
+        <v>1</v>
+      </c>
+      <c r="O48" s="23">
+        <v>1</v>
+      </c>
+      <c r="P48" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="23">
+        <v>0</v>
+      </c>
+      <c r="R48" s="23">
+        <v>1</v>
+      </c>
+      <c r="S48" s="23">
+        <v>1</v>
+      </c>
+      <c r="T48" s="23">
+        <v>1</v>
+      </c>
+      <c r="U48" s="23">
+        <v>0</v>
+      </c>
+      <c r="V48" s="20">
+        <v>0</v>
+      </c>
+      <c r="W48" s="20">
+        <v>1</v>
+      </c>
+      <c r="X48" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE48" s="22"/>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="1" t="e">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B49" s="32"/>
+      <c r="C49" s="17">
+        <v>47</v>
+      </c>
+      <c r="D49" s="18">
+        <v>1</v>
+      </c>
+      <c r="E49" s="19">
+        <v>1</v>
+      </c>
+      <c r="F49" s="19">
+        <v>1</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1</v>
+      </c>
+      <c r="H49" s="19">
+        <v>1</v>
+      </c>
+      <c r="I49" s="19">
+        <v>1</v>
+      </c>
+      <c r="J49" s="19">
+        <v>0</v>
+      </c>
+      <c r="K49" s="19">
+        <v>0</v>
+      </c>
+      <c r="L49" s="19">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19">
+        <v>1</v>
+      </c>
+      <c r="N49" s="19">
+        <v>1</v>
+      </c>
+      <c r="O49" s="19">
+        <v>0</v>
+      </c>
+      <c r="P49" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>1</v>
+      </c>
+      <c r="R49" s="19">
+        <v>1</v>
+      </c>
+      <c r="S49" s="19">
+        <v>1</v>
+      </c>
+      <c r="T49" s="19">
+        <v>0</v>
+      </c>
+      <c r="U49" s="19">
+        <v>0</v>
+      </c>
+      <c r="V49" s="20">
+        <v>1</v>
+      </c>
+      <c r="W49" s="20">
+        <v>1</v>
+      </c>
+      <c r="X49" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="22"/>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="1" t="e">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B50" s="32"/>
+      <c r="C50" s="17">
+        <v>48</v>
+      </c>
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="23">
+        <v>1</v>
+      </c>
+      <c r="F50" s="23">
+        <v>1</v>
+      </c>
+      <c r="G50" s="23">
+        <v>1</v>
+      </c>
+      <c r="H50" s="23">
+        <v>1</v>
+      </c>
+      <c r="I50" s="23">
+        <v>0</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0</v>
+      </c>
+      <c r="K50" s="23">
+        <v>0</v>
+      </c>
+      <c r="L50" s="23">
+        <v>1</v>
+      </c>
+      <c r="M50" s="23">
+        <v>1</v>
+      </c>
+      <c r="N50" s="23">
+        <v>0</v>
+      </c>
+      <c r="O50" s="23">
+        <v>0</v>
+      </c>
+      <c r="P50" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="23">
+        <v>1</v>
+      </c>
+      <c r="R50" s="23">
+        <v>1</v>
+      </c>
+      <c r="S50" s="23">
+        <v>0</v>
+      </c>
+      <c r="T50" s="23">
+        <v>0</v>
+      </c>
+      <c r="U50" s="23">
+        <v>1</v>
+      </c>
+      <c r="V50" s="20">
+        <v>1</v>
+      </c>
+      <c r="W50" s="20">
+        <v>1</v>
+      </c>
+      <c r="X50" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="22"/>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="20"/>
-      <c r="AD51" s="1" t="e">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B51" s="32"/>
+      <c r="C51" s="17">
+        <v>49</v>
+      </c>
+      <c r="D51" s="18">
+        <v>1</v>
+      </c>
+      <c r="E51" s="19">
+        <v>1</v>
+      </c>
+      <c r="F51" s="19">
+        <v>1</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1</v>
+      </c>
+      <c r="H51" s="19">
+        <v>0</v>
+      </c>
+      <c r="I51" s="19">
+        <v>0</v>
+      </c>
+      <c r="J51" s="19">
+        <v>0</v>
+      </c>
+      <c r="K51" s="19">
+        <v>1</v>
+      </c>
+      <c r="L51" s="19">
+        <v>1</v>
+      </c>
+      <c r="M51" s="19">
+        <v>0</v>
+      </c>
+      <c r="N51" s="19">
+        <v>0</v>
+      </c>
+      <c r="O51" s="19">
+        <v>1</v>
+      </c>
+      <c r="P51" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>1</v>
+      </c>
+      <c r="R51" s="19">
+        <v>0</v>
+      </c>
+      <c r="S51" s="19">
+        <v>0</v>
+      </c>
+      <c r="T51" s="19">
+        <v>1</v>
+      </c>
+      <c r="U51" s="19">
+        <v>1</v>
+      </c>
+      <c r="V51" s="20">
+        <v>1</v>
+      </c>
+      <c r="W51" s="20">
+        <v>1</v>
+      </c>
+      <c r="X51" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="22"/>
     </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="23"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="1" t="e">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B52" s="32"/>
+      <c r="C52" s="17">
+        <v>50</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1</v>
+      </c>
+      <c r="E52" s="23">
+        <v>1</v>
+      </c>
+      <c r="F52" s="23">
+        <v>1</v>
+      </c>
+      <c r="G52" s="23">
+        <v>0</v>
+      </c>
+      <c r="H52" s="23">
+        <v>0</v>
+      </c>
+      <c r="I52" s="23">
+        <v>0</v>
+      </c>
+      <c r="J52" s="23">
+        <v>1</v>
+      </c>
+      <c r="K52" s="23">
+        <v>1</v>
+      </c>
+      <c r="L52" s="23">
+        <v>0</v>
+      </c>
+      <c r="M52" s="23">
+        <v>0</v>
+      </c>
+      <c r="N52" s="23">
+        <v>1</v>
+      </c>
+      <c r="O52" s="23">
+        <v>1</v>
+      </c>
+      <c r="P52" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="23">
+        <v>0</v>
+      </c>
+      <c r="R52" s="23">
+        <v>0</v>
+      </c>
+      <c r="S52" s="23">
+        <v>1</v>
+      </c>
+      <c r="T52" s="23">
+        <v>1</v>
+      </c>
+      <c r="U52" s="23">
+        <v>1</v>
+      </c>
+      <c r="V52" s="20">
+        <v>1</v>
+      </c>
+      <c r="W52" s="20">
+        <v>0</v>
+      </c>
+      <c r="X52" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE52" s="22"/>
     </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="20"/>
-      <c r="AD53" s="1" t="e">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B53" s="32"/>
+      <c r="C53" s="17">
+        <v>51</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1</v>
+      </c>
+      <c r="E53" s="19">
+        <v>1</v>
+      </c>
+      <c r="F53" s="19">
+        <v>0</v>
+      </c>
+      <c r="G53" s="19">
+        <v>0</v>
+      </c>
+      <c r="H53" s="19">
+        <v>0</v>
+      </c>
+      <c r="I53" s="19">
+        <v>1</v>
+      </c>
+      <c r="J53" s="19">
+        <v>1</v>
+      </c>
+      <c r="K53" s="19">
+        <v>0</v>
+      </c>
+      <c r="L53" s="19">
+        <v>0</v>
+      </c>
+      <c r="M53" s="19">
+        <v>1</v>
+      </c>
+      <c r="N53" s="19">
+        <v>1</v>
+      </c>
+      <c r="O53" s="19">
+        <v>1</v>
+      </c>
+      <c r="P53" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>0</v>
+      </c>
+      <c r="R53" s="19">
+        <v>1</v>
+      </c>
+      <c r="S53" s="19">
+        <v>1</v>
+      </c>
+      <c r="T53" s="19">
+        <v>1</v>
+      </c>
+      <c r="U53" s="19">
+        <v>1</v>
+      </c>
+      <c r="V53" s="20">
+        <v>0</v>
+      </c>
+      <c r="W53" s="20">
+        <v>1</v>
+      </c>
+      <c r="X53" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="1">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AE53" s="22"/>
     </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="1" t="e">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B54" s="33"/>
+      <c r="C54" s="25">
+        <v>52</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0</v>
+      </c>
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <v>1</v>
+      </c>
+      <c r="I54" s="23">
+        <v>1</v>
+      </c>
+      <c r="J54" s="23">
+        <v>0</v>
+      </c>
+      <c r="K54" s="23">
+        <v>0</v>
+      </c>
+      <c r="L54" s="23">
+        <v>1</v>
+      </c>
+      <c r="M54" s="23">
+        <v>1</v>
+      </c>
+      <c r="N54" s="23">
+        <v>1</v>
+      </c>
+      <c r="O54" s="23">
+        <v>0</v>
+      </c>
+      <c r="P54" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="23">
+        <v>1</v>
+      </c>
+      <c r="R54" s="23">
+        <v>1</v>
+      </c>
+      <c r="S54" s="23">
+        <v>1</v>
+      </c>
+      <c r="T54" s="23">
+        <v>1</v>
+      </c>
+      <c r="U54" s="23">
+        <v>0</v>
+      </c>
+      <c r="V54" s="20">
+        <v>1</v>
+      </c>
+      <c r="W54" s="20">
+        <v>0</v>
+      </c>
+      <c r="X54" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="27">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE54" s="22"/>
-    </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="20"/>
-      <c r="AD55" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE55" s="22"/>
-    </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="20"/>
-      <c r="AD56" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE56" s="22"/>
-    </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE54" s="17"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="17"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="17"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
       <c r="X57" s="21"/>
       <c r="Y57" s="21"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="20"/>
-      <c r="AD57" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE57" s="22"/>
-    </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B58" s="31"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE58" s="22"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="17"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="21"/>
+      <c r="AE58" s="17"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C59" s="30"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="21"/>
+      <c r="AC59" s="21"/>
+      <c r="AD59" s="21"/>
+      <c r="AE59" s="2"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C60" s="30"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="21"/>
+      <c r="AE60" s="2"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C61" s="30"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="2"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C62" s="30"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="21"/>
+      <c r="AC62" s="21"/>
+      <c r="AD62" s="21"/>
+      <c r="AE62" s="2"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C63" s="30"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="2"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C64" s="17"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="17"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
@@ -6370,8 +7670,7 @@
       <c r="AD140" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B58"/>
+  <mergeCells count="1">
     <mergeCell ref="D1:AC1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
